--- a/2024-results/long-term-runs/2024 Longterm Only Results.xlsx
+++ b/2024-results/long-term-runs/2024 Longterm Only Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon.brodziak\Desktop\2024 WCNPO MLS Rebuilding\2024 Results\long-term-runs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon.brodziak\Desktop\2024 WCNPO MLS Rebuilding\2024-results\long-term-runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6505FEB5-738D-4DC6-A86F-A93C219E921E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FDF20F-79AE-4808-8D8F-EFE25AC60584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1783" yWindow="1680" windowWidth="12343" windowHeight="6977" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Catch" sheetId="14" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="135">
   <si>
     <t>Age</t>
   </si>
@@ -316,13 +316,7 @@
     <t>QREBUILD4 CATCH TRAJECTORIES</t>
   </si>
   <si>
-    <t>Constant F Rebuild</t>
-  </si>
-  <si>
     <t>Constant Quota Rebuild</t>
-  </si>
-  <si>
-    <t>Contant Quota Rebuild</t>
   </si>
   <si>
     <r>
@@ -409,15 +403,6 @@
     <t>Probability of Overfishing</t>
   </si>
   <si>
-    <t>Constant F Rebuild  Catch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constant Quota Rebuild Catch </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constant Fmsy Catch </t>
-  </si>
-  <si>
     <t>Average 2025-2034</t>
   </si>
   <si>
@@ -425,12 +410,6 @@
   </si>
   <si>
     <t>Percent of Maximum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constant Quota Rebuild </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constant Fmsy </t>
   </si>
   <si>
     <t>MLS Rebuilding Scenarios Under Long-term Recruitment Scenario</t>
@@ -473,6 +452,21 @@
   </si>
   <si>
     <t>WCNPO Striped Marlin Rebuilding Scenarios Under Long-term Recruitment</t>
+  </si>
+  <si>
+    <t>Constant F</t>
+  </si>
+  <si>
+    <t>Constant Catch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fmsy </t>
+  </si>
+  <si>
+    <t>Contant Catch</t>
+  </si>
+  <si>
+    <t>Rebuilding Scenarios Under Long-term Recruitment</t>
   </si>
 </sst>
 </file>
@@ -785,6 +779,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -812,7 +807,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1108,53 +1102,53 @@
   <sheetData>
     <row r="1" spans="1:65" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A1" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:65" ht="18" x14ac:dyDescent="0.45">
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="72"/>
-      <c r="AA3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
     </row>
     <row r="4" spans="1:65" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="73" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
+      <c r="B4" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
-      <c r="L4" s="73" t="s">
-        <v>113</v>
-      </c>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
+      <c r="L4" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
       <c r="V4" s="13"/>
-      <c r="W4" s="73" t="s">
-        <v>113</v>
-      </c>
-      <c r="X4" s="73"/>
-      <c r="Y4" s="73"/>
-      <c r="Z4" s="73"/>
-      <c r="AA4" s="73"/>
-      <c r="AB4" s="73"/>
-      <c r="AC4" s="73"/>
-      <c r="AD4" s="73"/>
+      <c r="W4" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
       <c r="AE4" s="27"/>
       <c r="AF4" s="27"/>
       <c r="AG4" s="27"/>
@@ -1162,41 +1156,41 @@
       <c r="AI4" s="27"/>
     </row>
     <row r="5" spans="1:65" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="74" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
+      <c r="B5" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
-      <c r="L5" s="75" t="s">
-        <v>132</v>
-      </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="75"/>
+      <c r="L5" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="43"/>
       <c r="U5" s="43"/>
       <c r="V5" s="13"/>
-      <c r="W5" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="74"/>
-      <c r="AB5" s="74"/>
-      <c r="AC5" s="74"/>
-      <c r="AD5" s="74"/>
+      <c r="W5" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="75"/>
+      <c r="Z5" s="75"/>
+      <c r="AA5" s="75"/>
+      <c r="AB5" s="75"/>
+      <c r="AC5" s="75"/>
+      <c r="AD5" s="75"/>
       <c r="AE5" s="43"/>
       <c r="AF5" s="43"/>
       <c r="AG5" s="43"/>
@@ -1208,25 +1202,25 @@
         <v>22</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F6" s="42" t="s">
         <v>68</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H6" s="30" t="s">
         <v>70</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
@@ -1234,25 +1228,25 @@
         <v>22</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N6" s="30" t="s">
         <v>69</v>
       </c>
       <c r="O6" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P6" s="42" t="s">
         <v>68</v>
       </c>
       <c r="Q6" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R6" s="30" t="s">
         <v>70</v>
       </c>
       <c r="S6" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T6" s="13"/>
       <c r="U6" s="13"/>
@@ -1261,25 +1255,25 @@
         <v>22</v>
       </c>
       <c r="X6" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Y6" s="30" t="s">
         <v>69</v>
       </c>
       <c r="Z6" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AA6" s="30" t="s">
         <v>68</v>
       </c>
       <c r="AB6" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AC6" s="30" t="s">
         <v>70</v>
       </c>
       <c r="AD6" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AE6" s="40"/>
       <c r="AF6" s="40"/>
@@ -5050,80 +5044,80 @@
   <sheetData>
     <row r="1" spans="1:62" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A1" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:62" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
-      <c r="L3" s="73" t="s">
+      <c r="L3" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
       <c r="T3" s="27"/>
       <c r="U3" s="13"/>
-      <c r="V3" s="73" t="s">
+      <c r="V3" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="73"/>
-      <c r="AA3" s="73"/>
-      <c r="AB3" s="73"/>
-      <c r="AC3" s="73"/>
+      <c r="W3" s="74"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="74"/>
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="74"/>
+      <c r="AC3" s="74"/>
     </row>
     <row r="4" spans="1:62" s="4" customFormat="1" ht="26.6" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B4" s="74" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
+      <c r="B4" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
       <c r="J4" s="27"/>
       <c r="K4" s="27"/>
-      <c r="L4" s="74" t="s">
-        <v>133</v>
-      </c>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
+      <c r="L4" s="75" t="s">
+        <v>126</v>
+      </c>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
       <c r="T4" s="27"/>
       <c r="U4" s="13"/>
-      <c r="V4" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="W4" s="74"/>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="74"/>
+      <c r="V4" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="75"/>
+      <c r="AA4" s="75"/>
+      <c r="AB4" s="75"/>
+      <c r="AC4" s="75"/>
       <c r="AE4" s="11" t="s">
         <v>83</v>
       </c>
@@ -5166,25 +5160,25 @@
         <v>22</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>68</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H5" s="30" t="s">
         <v>70</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J5" s="25"/>
       <c r="K5" s="25"/>
@@ -5192,25 +5186,25 @@
         <v>22</v>
       </c>
       <c r="M5" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N5" s="30" t="s">
         <v>69</v>
       </c>
       <c r="O5" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P5" s="30" t="s">
         <v>68</v>
       </c>
       <c r="Q5" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R5" s="30" t="s">
         <v>70</v>
       </c>
       <c r="S5" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T5" s="25"/>
       <c r="U5" s="13"/>
@@ -5218,25 +5212,25 @@
         <v>22</v>
       </c>
       <c r="W5" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="X5" s="30" t="s">
         <v>69</v>
       </c>
       <c r="Y5" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Z5" s="30" t="s">
         <v>68</v>
       </c>
       <c r="AA5" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AB5" s="30" t="s">
         <v>70</v>
       </c>
       <c r="AC5" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AE5" s="9" t="s">
         <v>73</v>
@@ -8996,7 +8990,7 @@
   <sheetData>
     <row r="1" spans="1:72" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A1" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -9033,168 +9027,168 @@
       <c r="AH1" s="4"/>
     </row>
     <row r="3" spans="1:72" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="AK3" s="76"/>
-      <c r="AL3" s="76"/>
-      <c r="AM3" s="76"/>
+      <c r="AK3" s="77"/>
+      <c r="AL3" s="77"/>
+      <c r="AM3" s="77"/>
     </row>
     <row r="4" spans="1:72" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="L4" s="73" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="L4" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="U4" s="73" t="s">
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="U4" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="73"/>
-      <c r="Y4" s="73"/>
-      <c r="Z4" s="73"/>
-      <c r="AA4" s="73"/>
-      <c r="AB4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
       <c r="AI4" s="13"/>
       <c r="AJ4" s="13"/>
-      <c r="AK4" s="77" t="s">
+      <c r="AK4" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="AL4" s="77"/>
-      <c r="AM4" s="77"/>
+      <c r="AL4" s="78"/>
+      <c r="AM4" s="78"/>
     </row>
     <row r="5" spans="1:72" ht="21.45" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="74" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="L5" s="75" t="s">
-        <v>132</v>
-      </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="75"/>
-      <c r="U5" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="74"/>
-      <c r="AB5" s="74"/>
+      <c r="B5" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="L5" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="U5" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="75"/>
+      <c r="Z5" s="75"/>
+      <c r="AA5" s="75"/>
+      <c r="AB5" s="75"/>
       <c r="AI5" s="13"/>
       <c r="AJ5" s="13"/>
-      <c r="AK5" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL5" s="71"/>
-      <c r="AM5" s="71"/>
+      <c r="AK5" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL5" s="72"/>
+      <c r="AM5" s="72"/>
     </row>
     <row r="6" spans="1:72" s="5" customFormat="1" ht="26.6" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B6" s="30" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F6" s="42" t="s">
         <v>68</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H6" s="30" t="s">
         <v>70</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L6" s="30" t="s">
         <v>22</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N6" s="30" t="s">
         <v>69</v>
       </c>
       <c r="O6" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P6" s="42" t="s">
         <v>68</v>
       </c>
       <c r="Q6" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R6" s="30" t="s">
         <v>70</v>
       </c>
       <c r="S6" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="U6" s="30" t="s">
         <v>22</v>
       </c>
       <c r="V6" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="W6" s="30" t="s">
         <v>69</v>
       </c>
       <c r="X6" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Y6" s="42" t="s">
         <v>68</v>
       </c>
       <c r="Z6" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AA6" s="30" t="s">
         <v>70</v>
       </c>
       <c r="AB6" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AI6" s="13"/>
       <c r="AJ6" s="14"/>
-      <c r="AK6" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL6" s="73"/>
-      <c r="AM6" s="73"/>
+      <c r="AK6" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL6" s="74"/>
+      <c r="AM6" s="74"/>
       <c r="AO6" s="11" t="s">
         <v>86</v>
       </c>
@@ -12355,62 +12349,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection sqref="A1:I18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="3" width="11.921875" style="13" customWidth="1"/>
     <col min="4" max="4" width="10.61328125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="24.765625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="4.53515625" style="13" customWidth="1"/>
     <col min="6" max="7" width="11.69140625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.3" x14ac:dyDescent="0.6">
-      <c r="A1" s="80" t="s">
-        <v>136</v>
+      <c r="A1" s="71" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="78" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="F3" s="78" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-    </row>
-    <row r="4" spans="1:9" ht="46.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="79" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="F3" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+    </row>
+    <row r="4" spans="1:9" ht="31.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="30" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="30" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="H4" s="46" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
@@ -12829,24 +12823,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028C4F4E-E025-48AF-AFA4-D088B40154CA}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection sqref="A1:N22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11" style="12" customWidth="1"/>
     <col min="2" max="4" width="10.69140625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="7.69140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="3.84375" style="12" customWidth="1"/>
     <col min="6" max="6" width="11" style="12" customWidth="1"/>
     <col min="7" max="9" width="10.69140625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="9.23046875" style="24"/>
+    <col min="10" max="10" width="3.61328125" style="24" customWidth="1"/>
     <col min="11" max="11" width="10.3046875" style="24" customWidth="1"/>
-    <col min="12" max="14" width="9.53515625" style="24" customWidth="1"/>
+    <col min="12" max="12" width="10.765625" style="24" customWidth="1"/>
+    <col min="13" max="14" width="9.53515625" style="24" customWidth="1"/>
     <col min="15" max="16384" width="9.23046875" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25.3" x14ac:dyDescent="0.6">
-      <c r="A1" s="80" t="s">
-        <v>136</v>
+      <c r="A1" s="71" t="s">
+        <v>129</v>
       </c>
       <c r="F1" s="56"/>
     </row>
@@ -12859,62 +12856,62 @@
       <c r="F3" s="52"/>
     </row>
     <row r="4" spans="1:14" ht="20.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="79" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="F4" s="79" t="s">
+      <c r="A4" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="F4" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="K4" s="79" t="s">
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="K4" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
     </row>
     <row r="5" spans="1:14" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="30" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="30" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="H5" s="46" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I5" s="46" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="K5" s="30" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="46" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="M5" s="46" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="N5" s="46" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.45">
@@ -13492,7 +13489,7 @@
     </row>
     <row r="20" spans="1:14" ht="33.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="55" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B20" s="53">
         <f>AVERAGE(B10:B19)</f>
@@ -13508,7 +13505,7 @@
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="55" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G20" s="53">
         <f>AVERAGE(G10:G19)</f>
@@ -13523,7 +13520,7 @@
         <v>3413.4</v>
       </c>
       <c r="K20" s="55" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L20" s="63">
         <f>AVERAGE(L10:L19)</f>
@@ -13540,7 +13537,7 @@
     </row>
     <row r="21" spans="1:14" ht="36.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="55" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B21" s="53">
         <f>SUM(B10:B19)</f>
@@ -13556,7 +13553,7 @@
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="55" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G21" s="53">
         <f>SUM(G10:G19)</f>
@@ -13577,7 +13574,7 @@
     </row>
     <row r="22" spans="1:14" ht="35.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="55" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B22" s="54">
         <f>B21/MAX($B21:$C21)</f>
@@ -13593,7 +13590,7 @@
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="55" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G22" s="54">
         <f>G21/MAX($G21:$H21)</f>
@@ -13655,7 +13652,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
@@ -13678,7 +13675,7 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="H5">
         <v>2024</v>
@@ -13698,7 +13695,7 @@
         <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -13822,16 +13819,16 @@
         <v>49</v>
       </c>
       <c r="D17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" t="s">
         <v>95</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>96</v>
-      </c>
-      <c r="F17" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -13853,31 +13850,31 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" t="s">
         <v>99</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>100</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>101</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>102</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>103</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>104</v>
       </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>105</v>
-      </c>
-      <c r="J21" t="s">
-        <v>106</v>
-      </c>
-      <c r="K21" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -28479,7 +28476,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
@@ -28502,7 +28499,7 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="H5">
         <v>2024</v>
@@ -28522,7 +28519,7 @@
         <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -28646,16 +28643,16 @@
         <v>49</v>
       </c>
       <c r="D17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" t="s">
         <v>95</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>96</v>
-      </c>
-      <c r="F17" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -28703,31 +28700,31 @@
         <v>40</v>
       </c>
       <c r="C23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" t="s">
         <v>99</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>100</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
         <v>101</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
         <v>102</v>
       </c>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
         <v>103</v>
       </c>
-      <c r="H23" t="s">
+      <c r="J23" t="s">
         <v>104</v>
       </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
         <v>105</v>
-      </c>
-      <c r="J23" t="s">
-        <v>106</v>
-      </c>
-      <c r="K23" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -43329,7 +43326,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
@@ -43352,7 +43349,7 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="H5">
         <v>2024</v>
@@ -43372,7 +43369,7 @@
         <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -43496,16 +43493,16 @@
         <v>49</v>
       </c>
       <c r="D17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" t="s">
         <v>95</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>96</v>
-      </c>
-      <c r="F17" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -43527,31 +43524,31 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" t="s">
         <v>99</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>100</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>101</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>102</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>103</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>104</v>
       </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>105</v>
-      </c>
-      <c r="J21" t="s">
-        <v>106</v>
-      </c>
-      <c r="K21" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
